--- a/ApacheAirflow/Data Pipelines with Apache Airflow.xlsx
+++ b/ApacheAirflow/Data Pipelines with Apache Airflow.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\Apache Airflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3._Михайлов\Develop\PythonTraining\PythonTraining\ApacheAirflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2143017E-3999-4ED7-83EA-1F8585B764FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617285E2-1FC6-41A6-9A3F-4274A003A6EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
       </c>
       <c r="M2" s="2">
         <f>MEDIAN(I2:I18)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
       </c>
       <c r="M3" s="3">
         <f>MEDIAN(J2:J18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -715,16 +715,29 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="2"/>
+      <c r="G4" s="1">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1">
+        <v>85</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H4-G4</f>
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2">
+        <f>I4/J4</f>
+        <v>5.333333333333333</v>
+      </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="2">
         <f>MEDIAN(K2:K18)</f>
-        <v>5.6666666666666661</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -777,7 +790,7 @@
       </c>
       <c r="M6" s="2">
         <f>AVERAGE(I2:I18)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -807,7 +820,7 @@
       </c>
       <c r="M7" s="2">
         <f>AVERAGE(J2:J18)</f>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -837,7 +850,7 @@
       </c>
       <c r="M8" s="2">
         <f>AVERAGE(K2:K18)</f>
-        <v>5.6666666666666661</v>
+        <v>5.5555555555555545</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -936,7 +949,7 @@
       </c>
       <c r="M12">
         <f>SUM(J2:J18)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -966,7 +979,7 @@
       </c>
       <c r="M13" s="2">
         <f>(MAX(B2:B20)-MAX(H2:H19))/M6</f>
-        <v>37.272727272727273</v>
+        <v>20.944444444444443</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">

--- a/ApacheAirflow/Data Pipelines with Apache Airflow.xlsx
+++ b/ApacheAirflow/Data Pipelines with Apache Airflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3._Михайлов\Develop\PythonTraining\PythonTraining\ApacheAirflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617285E2-1FC6-41A6-9A3F-4274A003A6EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28C7BC1-6425-49D9-BD1A-4B72B2D4D30D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Начальная оценка, дней</t>
+  </si>
+  <si>
+    <t>Оценка количества помидор</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F2483-BB39-4242-A6CA-6B386A6BC967}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +585,7 @@
     <col min="13" max="13" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -611,7 +614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,10 +654,10 @@
       </c>
       <c r="M2" s="2">
         <f>MEDIAN(I2:I18)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -694,10 +697,10 @@
       </c>
       <c r="M3" s="3">
         <f>MEDIAN(J2:J18)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -740,7 +743,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,12 +761,25 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>86</v>
+      </c>
+      <c r="H5" s="1">
+        <v>132</v>
+      </c>
+      <c r="I5" s="1">
+        <f>H5-G5</f>
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
+        <f>I5/J5</f>
+        <v>5.1111111111111107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,10 +806,10 @@
       </c>
       <c r="M6" s="2">
         <f>AVERAGE(I2:I18)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,10 +836,10 @@
       </c>
       <c r="M7" s="2">
         <f>AVERAGE(J2:J18)</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,10 +866,10 @@
       </c>
       <c r="M8" s="2">
         <f>AVERAGE(K2:K18)</f>
-        <v>5.5555555555555545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.4444444444444438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,7 +892,7 @@
       <c r="I9" s="1"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,7 +915,7 @@
       <c r="I10" s="1"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,7 +938,7 @@
       <c r="I11" s="1"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -949,10 +965,10 @@
       </c>
       <c r="M12">
         <f>SUM(J2:J18)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,10 +995,10 @@
       </c>
       <c r="M13" s="2">
         <f>(MAX(B2:B20)-MAX(H2:H19))/M6</f>
-        <v>20.944444444444443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1021,7 @@
       <c r="I14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1033,7 +1049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1054,6 +1070,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>70</v>
+      </c>
+      <c r="N16">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">

--- a/ApacheAirflow/Data Pipelines with Apache Airflow.xlsx
+++ b/ApacheAirflow/Data Pipelines with Apache Airflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3._Михайлов\Develop\PythonTraining\PythonTraining\ApacheAirflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28C7BC1-6425-49D9-BD1A-4B72B2D4D30D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBAB66-596F-4ED6-9CD3-AE3F5215DB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="M2" s="2">
         <f>MEDIAN(I2:I18)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
       </c>
       <c r="M3" s="3">
         <f>MEDIAN(J2:J18)</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -797,16 +797,29 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="2"/>
+      <c r="G6" s="1">
+        <v>133</v>
+      </c>
+      <c r="H6" s="1">
+        <v>163</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6-G6</f>
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2">
+        <f>I6/J6</f>
+        <v>4.2857142857142856</v>
+      </c>
       <c r="L6" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="2">
         <f>AVERAGE(I2:I18)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -836,7 +849,7 @@
       </c>
       <c r="M7" s="2">
         <f>AVERAGE(J2:J18)</f>
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -866,7 +879,7 @@
       </c>
       <c r="M8" s="2">
         <f>AVERAGE(K2:K18)</f>
-        <v>5.4444444444444438</v>
+        <v>5.2126984126984119</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -965,7 +978,7 @@
       </c>
       <c r="M12">
         <f>SUM(J2:J18)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -995,7 +1008,7 @@
       </c>
       <c r="M13" s="2">
         <f>(MAX(B2:B20)-MAX(H2:H19))/M6</f>
-        <v>13.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/ApacheAirflow/Data Pipelines with Apache Airflow.xlsx
+++ b/ApacheAirflow/Data Pipelines with Apache Airflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3._Михайлов\Develop\PythonTraining\PythonTraining\ApacheAirflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBAB66-596F-4ED6-9CD3-AE3F5215DB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3217C082-56FB-48B0-B838-B9B310EBE7DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F2483-BB39-4242-A6CA-6B386A6BC967}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,14 +639,14 @@
         <v>35</v>
       </c>
       <c r="I2" s="1">
-        <f>H2-G2</f>
+        <f t="shared" ref="I2:I7" si="0">H2-G2</f>
         <v>6</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <f>I2/J2</f>
+        <f t="shared" ref="K2:K7" si="1">I2/J2</f>
         <v>6</v>
       </c>
       <c r="L2" t="s">
@@ -654,7 +654,7 @@
       </c>
       <c r="M2" s="2">
         <f>MEDIAN(I2:I18)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C14" si="0">B4-B3</f>
+        <f t="shared" ref="C3:C14" si="2">B4-B3</f>
         <v>20</v>
       </c>
       <c r="D3" s="1">
@@ -682,14 +682,14 @@
         <v>52</v>
       </c>
       <c r="I3" s="1">
-        <f>H3-G3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" s="2">
-        <f>I3/J3</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
       <c r="L3" t="s">
@@ -697,7 +697,7 @@
       </c>
       <c r="M3" s="3">
         <f>MEDIAN(J2:J18)</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D4" s="1">
@@ -725,14 +725,14 @@
         <v>85</v>
       </c>
       <c r="I4" s="1">
-        <f>H4-G4</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="J4">
         <v>6</v>
       </c>
       <c r="K4" s="2">
-        <f>I4/J4</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
       <c r="L4" t="s">
@@ -740,7 +740,7 @@
       </c>
       <c r="M4" s="2">
         <f>MEDIAN(K2:K18)</f>
-        <v>5.333333333333333</v>
+        <v>5.2222222222222214</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>86</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D5" s="1">
@@ -768,14 +768,14 @@
         <v>132</v>
       </c>
       <c r="I5" s="1">
-        <f>H5-G5</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5" s="2">
-        <f>I5/J5</f>
+        <f t="shared" si="1"/>
         <v>5.1111111111111107</v>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>111</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D6" s="1">
@@ -804,14 +804,14 @@
         <v>163</v>
       </c>
       <c r="I6" s="1">
-        <f>H6-G6</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6" s="2">
-        <f>I6/J6</f>
+        <f t="shared" si="1"/>
         <v>4.2857142857142856</v>
       </c>
       <c r="L6" t="s">
@@ -819,7 +819,7 @@
       </c>
       <c r="M6" s="2">
         <f>AVERAGE(I2:I18)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>141</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D7" s="1">
@@ -840,16 +840,29 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="2"/>
+      <c r="G7" s="1">
+        <v>164</v>
+      </c>
+      <c r="H7" s="1">
+        <v>220</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0909090909090908</v>
+      </c>
       <c r="L7" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="2">
         <f>AVERAGE(J2:J18)</f>
-        <v>5.2</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -860,7 +873,7 @@
         <v>161</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D8" s="1">
@@ -879,7 +892,7 @@
       </c>
       <c r="M8" s="2">
         <f>AVERAGE(K2:K18)</f>
-        <v>5.2126984126984119</v>
+        <v>5.1924001924001919</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -890,7 +903,7 @@
         <v>183</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D9" s="1">
@@ -913,7 +926,7 @@
         <v>212</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D10" s="1">
@@ -936,7 +949,7 @@
         <v>246</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D11" s="1">
@@ -959,7 +972,7 @@
         <v>281</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D12" s="1">
@@ -978,7 +991,7 @@
       </c>
       <c r="M12">
         <f>SUM(J2:J18)</f>
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -989,7 +1002,7 @@
         <v>307</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="D13" s="1">
@@ -1008,7 +1021,7 @@
       </c>
       <c r="M13" s="2">
         <f>(MAX(B2:B20)-MAX(H2:H19))/M6</f>
-        <v>11.5</v>
+        <v>7.806451612903226</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1019,7 +1032,7 @@
         <v>348</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D14" s="1">
@@ -1042,7 +1055,7 @@
         <v>370</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:C17" si="1">B16-B15</f>
+        <f t="shared" ref="C15:C17" si="3">B16-B15</f>
         <v>23</v>
       </c>
       <c r="D15" s="1">
@@ -1070,7 +1083,7 @@
         <v>393</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D16" s="1">
@@ -1101,7 +1114,7 @@
         <v>401</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D17" s="1">
@@ -1123,7 +1136,7 @@
         <v>420</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ref="C18:C19" si="2">B19-B18</f>
+        <f t="shared" ref="C18:C19" si="4">B19-B18</f>
         <v>18</v>
       </c>
       <c r="D18" s="1">
@@ -1145,7 +1158,7 @@
         <v>438</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D19" s="1">
